--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nrg2-Erbb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nrg2-Erbb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Erbb3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.178245666666667</v>
+        <v>0.1182943333333333</v>
       </c>
       <c r="H2">
-        <v>3.534737</v>
+        <v>0.354883</v>
       </c>
       <c r="I2">
-        <v>0.8546990546349293</v>
+        <v>0.07902913105657369</v>
       </c>
       <c r="J2">
-        <v>0.8546990546349293</v>
+        <v>0.07902913105657366</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.058393</v>
+        <v>0.2023976666666667</v>
       </c>
       <c r="N2">
-        <v>0.175179</v>
+        <v>0.6071930000000001</v>
       </c>
       <c r="O2">
-        <v>0.01085373024912483</v>
+        <v>0.03663970451354832</v>
       </c>
       <c r="P2">
-        <v>0.01085373024912483</v>
+        <v>0.03663970451354832</v>
       </c>
       <c r="Q2">
-        <v>0.06880129921366666</v>
+        <v>0.02394249704655556</v>
       </c>
       <c r="R2">
-        <v>0.6192116929229999</v>
+        <v>0.215482473419</v>
       </c>
       <c r="S2">
-        <v>0.009276672983189528</v>
+        <v>0.002895604009875344</v>
       </c>
       <c r="T2">
-        <v>0.009276672983189528</v>
+        <v>0.002895604009875344</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.178245666666667</v>
+        <v>0.1182943333333333</v>
       </c>
       <c r="H3">
-        <v>3.534737</v>
+        <v>0.354883</v>
       </c>
       <c r="I3">
-        <v>0.8546990546349293</v>
+        <v>0.07902913105657369</v>
       </c>
       <c r="J3">
-        <v>0.8546990546349293</v>
+        <v>0.07902913105657366</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.432105</v>
       </c>
       <c r="O3">
-        <v>0.08873027793527143</v>
+        <v>0.08641717548188978</v>
       </c>
       <c r="P3">
-        <v>0.08873027793527143</v>
+        <v>0.08641717548188979</v>
       </c>
       <c r="Q3">
-        <v>0.5624571701538889</v>
+        <v>0.05646996874611111</v>
       </c>
       <c r="R3">
-        <v>5.062114531384999</v>
+        <v>0.508229718715</v>
       </c>
       <c r="S3">
-        <v>0.07583768466877101</v>
+        <v>0.006829474286697194</v>
       </c>
       <c r="T3">
-        <v>0.07583768466877101</v>
+        <v>0.006829474286697192</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,14 +643,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.178245666666667</v>
+        <v>0.1182943333333333</v>
       </c>
       <c r="H4">
-        <v>3.534737</v>
+        <v>0.354883</v>
       </c>
       <c r="I4">
-        <v>0.8546990546349293</v>
+        <v>0.07902913105657369</v>
       </c>
       <c r="J4">
-        <v>0.8546990546349293</v>
+        <v>0.07902913105657366</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>14.532697</v>
       </c>
       <c r="O4">
-        <v>0.9004159918156037</v>
+        <v>0.876943120004562</v>
       </c>
       <c r="P4">
-        <v>0.9004159918156037</v>
+        <v>0.876943120004562</v>
       </c>
       <c r="Q4">
-        <v>5.707695755076554</v>
+        <v>0.5730452343834445</v>
       </c>
       <c r="R4">
-        <v>51.36926179568899</v>
+        <v>5.157407109450999</v>
       </c>
       <c r="S4">
-        <v>0.7695846969829688</v>
+        <v>0.06930405276000116</v>
       </c>
       <c r="T4">
-        <v>0.7695846969829688</v>
+        <v>0.06930405276000114</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2003046666666667</v>
+        <v>1.178245666666667</v>
       </c>
       <c r="H5">
-        <v>0.6009139999999999</v>
+        <v>3.534737</v>
       </c>
       <c r="I5">
-        <v>0.1453009453650707</v>
+        <v>0.7871529310322559</v>
       </c>
       <c r="J5">
-        <v>0.1453009453650707</v>
+        <v>0.7871529310322558</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.058393</v>
+        <v>0.2023976666666667</v>
       </c>
       <c r="N5">
-        <v>0.175179</v>
+        <v>0.6071930000000001</v>
       </c>
       <c r="O5">
-        <v>0.01085373024912483</v>
+        <v>0.03663970451354832</v>
       </c>
       <c r="P5">
-        <v>0.01085373024912483</v>
+        <v>0.03663970451354832</v>
       </c>
       <c r="Q5">
-        <v>0.01169639040066667</v>
+        <v>0.2384741736934445</v>
       </c>
       <c r="R5">
-        <v>0.105267513606</v>
+        <v>2.146267563241</v>
       </c>
       <c r="S5">
-        <v>0.001577057265935302</v>
+        <v>0.02884105079999533</v>
       </c>
       <c r="T5">
-        <v>0.001577057265935302</v>
+        <v>0.02884105079999533</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2003046666666667</v>
+        <v>1.178245666666667</v>
       </c>
       <c r="H6">
-        <v>0.6009139999999999</v>
+        <v>3.534737</v>
       </c>
       <c r="I6">
-        <v>0.1453009453650707</v>
+        <v>0.7871529310322559</v>
       </c>
       <c r="J6">
-        <v>0.1453009453650707</v>
+        <v>0.7871529310322558</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>1.432105</v>
       </c>
       <c r="O6">
-        <v>0.08873027793527143</v>
+        <v>0.08641717548188978</v>
       </c>
       <c r="P6">
-        <v>0.08873027793527143</v>
+        <v>0.08641717548188979</v>
       </c>
       <c r="Q6">
-        <v>0.09561910488555556</v>
+        <v>0.5624571701538889</v>
       </c>
       <c r="R6">
-        <v>0.8605719439699999</v>
+        <v>5.062114531384999</v>
       </c>
       <c r="S6">
-        <v>0.01289259326650041</v>
+        <v>0.06802353297209834</v>
       </c>
       <c r="T6">
-        <v>0.01289259326650041</v>
+        <v>0.06802353297209834</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,14 +829,14 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2003046666666667</v>
+        <v>1.178245666666667</v>
       </c>
       <c r="H7">
-        <v>0.6009139999999999</v>
+        <v>3.534737</v>
       </c>
       <c r="I7">
-        <v>0.1453009453650707</v>
+        <v>0.7871529310322559</v>
       </c>
       <c r="J7">
-        <v>0.1453009453650707</v>
+        <v>0.7871529310322558</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,208 @@
         <v>14.532697</v>
       </c>
       <c r="O7">
-        <v>0.9004159918156037</v>
+        <v>0.876943120004562</v>
       </c>
       <c r="P7">
-        <v>0.9004159918156037</v>
+        <v>0.876943120004562</v>
       </c>
       <c r="Q7">
+        <v>5.707695755076554</v>
+      </c>
+      <c r="R7">
+        <v>51.36926179568899</v>
+      </c>
+      <c r="S7">
+        <v>0.6902883472601623</v>
+      </c>
+      <c r="T7">
+        <v>0.6902883472601622</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.2003046666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.6009139999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.1338179379111705</v>
+      </c>
+      <c r="J8">
+        <v>0.1338179379111705</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.2023976666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.6071930000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.03663970451354832</v>
+      </c>
+      <c r="P8">
+        <v>0.03663970451354832</v>
+      </c>
+      <c r="Q8">
+        <v>0.04054119715577778</v>
+      </c>
+      <c r="R8">
+        <v>0.364870774402</v>
+      </c>
+      <c r="S8">
+        <v>0.004903049703677642</v>
+      </c>
+      <c r="T8">
+        <v>0.004903049703677641</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.2003046666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.6009139999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.1338179379111705</v>
+      </c>
+      <c r="J9">
+        <v>0.1338179379111705</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.4773683333333333</v>
+      </c>
+      <c r="N9">
+        <v>1.432105</v>
+      </c>
+      <c r="O9">
+        <v>0.08641717548188978</v>
+      </c>
+      <c r="P9">
+        <v>0.08641717548188979</v>
+      </c>
+      <c r="Q9">
+        <v>0.09561910488555556</v>
+      </c>
+      <c r="R9">
+        <v>0.8605719439699999</v>
+      </c>
+      <c r="S9">
+        <v>0.01156416822309425</v>
+      </c>
+      <c r="T9">
+        <v>0.01156416822309425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.2003046666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.6009139999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.1338179379111705</v>
+      </c>
+      <c r="J10">
+        <v>0.1338179379111705</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.844232333333333</v>
+      </c>
+      <c r="N10">
+        <v>14.532697</v>
+      </c>
+      <c r="O10">
+        <v>0.876943120004562</v>
+      </c>
+      <c r="P10">
+        <v>0.876943120004562</v>
+      </c>
+      <c r="Q10">
         <v>0.9703223427842221</v>
       </c>
-      <c r="R7">
+      <c r="R10">
         <v>8.732901085057998</v>
       </c>
-      <c r="S7">
-        <v>0.130831294832635</v>
-      </c>
-      <c r="T7">
-        <v>0.130831294832635</v>
+      <c r="S10">
+        <v>0.1173507199843986</v>
+      </c>
+      <c r="T10">
+        <v>0.1173507199843986</v>
       </c>
     </row>
   </sheetData>
